--- a/OpenRocket_automation/OpenRocket/sample.xlsx
+++ b/OpenRocket_automation/OpenRocket/sample.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\znddi\Desktop\RPA\OpenRocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0507DD95-78A8-44CE-9164-227FD8E2BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CC844-98E5-4C7A-BDB8-24D616942754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81349CC0-A320-467B-A0BA-0F20184FF677}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>Parts</t>
     <phoneticPr fontId="1"/>
@@ -424,6 +424,182 @@
     <t>台形フィン</t>
     <rPh sb="0" eb="2">
       <t>ダイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品材料</t>
+    <rPh sb="0" eb="4">
+      <t>ブヒンザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Basswood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blue tube</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Depron(XPS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quantum tubing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクリル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カエデ材</t>
+    <rPh sb="3" eb="4">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カバ材</t>
+    <rPh sb="2" eb="3">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボンファイバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラスファイバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コルク材</t>
+    <rPh sb="3" eb="4">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタイロフォーム(EPS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタイロフォーム青(XPS)</t>
+    <rPh sb="8" eb="9">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプルース材</t>
+    <rPh sb="5" eb="6">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バルサ材</t>
+    <rPh sb="3" eb="4">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール紙</t>
+    <rPh sb="3" eb="4">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリカーボネート(Lecan)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリスチレン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリ塩化ビニル</t>
+    <rPh sb="2" eb="4">
+      <t>エンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マツ材</t>
+    <rPh sb="2" eb="3">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合板(カバ材)</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウバン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真鍮</t>
+    <rPh sb="0" eb="2">
+      <t>シンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙フェノール</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙(オフィス用)</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストから選択</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品材料一覧</t>
+    <rPh sb="0" eb="4">
+      <t>ブヒンザイリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -595,29 +771,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1007,27 +1183,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CEB9D0-5A94-4DCF-930C-2F743F34AE90}">
-  <dimension ref="B2:F32"/>
+  <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="6.625" customWidth="1"/>
     <col min="6" max="6" width="107.875" customWidth="1"/>
+    <col min="12" max="12" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1043,21 +1220,27 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="L3" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="L4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1065,13 +1248,16 @@
       <c r="D5" s="15"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="L5" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1080,319 +1266,452 @@
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="L6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="F9" s="13"/>
+      <c r="L9" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="L10" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="18" t="s">
+      <c r="F11" s="13"/>
+      <c r="L11" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="L12" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="L13" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="F14" s="13"/>
+      <c r="L14" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="5" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F15" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
+      <c r="L15" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="L16" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="L17" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="5" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="L18" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="5" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="L19" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="L20" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F21" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="15" t="s">
+      <c r="L21" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="L23" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F24" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
+      <c r="L24" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="15" t="s">
+      <c r="F25" s="13"/>
+      <c r="L25" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
+      <c r="L26" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="12" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12" t="s">
+      <c r="F27" s="13"/>
+      <c r="L27" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="12" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="15" t="s">
+      <c r="F29" s="13"/>
+      <c r="L29" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="12" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="7" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D22 D28 D32 D36" xr:uid="{378E5706-7EC2-4BAA-BE4D-9F779DBA87B7}">
+      <formula1>$L$4:$L$29</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>